--- a/项目计划表.xlsx
+++ b/项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{878B1884-19C1-458E-988D-E29984399357}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -45,51 +39,59 @@
     <t>日期：2018.10.08 第六周周一</t>
   </si>
   <si>
-    <t>邱志鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄俊贤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄立根</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯德志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常永伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户个人信息管理并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户好友管理并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析群主功能并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析管理员功能并画出用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求文档，分析普通用户群组管理用例图</t>
+    <t>吴瑞鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶君瑞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王泽儒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张源华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求分析，分析&lt;聊天&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求分析，分析&lt;个人，设置&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求分析，分析&lt;登录，注册&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求分析，分析&lt;群管理&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求分析，分析&lt;定位&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已进行项目需求分析讨论，并通过分析确定每个功能模块的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时未得知如何设计用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +110,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,10 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,9 +179,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,30 +470,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="102.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,79 +506,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,55 +604,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -671,33 +657,33 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
